--- a/files/applications/edited_products_template.xlsx
+++ b/files/applications/edited_products_template.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
-    <t>Номер продукции</t>
+    <t>Код номенклатуры</t>
   </si>
   <si>
     <t>Торговое название</t>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -83,26 +83,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,7 +98,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -136,22 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
@@ -167,17 +135,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,8 +158,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,32 +213,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,19 +249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +297,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,31 +357,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,13 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,67 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +447,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,7 +456,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +472,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +517,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -520,171 +540,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -960,7 +960,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1037,8 +1037,10 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="2"/>
+    <row r="3" ht="12" spans="1:23">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
